--- a/Twitter Automation/Account.xlsx
+++ b/Twitter Automation/Account.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuha\Desktop\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuha\Desktop\X\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC209E9F-D115-43A0-BC88-0186A6B122BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79062C62-FF01-47D5-B86F-FCE7109FF335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5535" yWindow="4170" windowWidth="21765" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,12 +26,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>https://twitter.com/askenjp/status/1729696689844346891</t>
+    <t>https://twitter.com/DaffyDodo_IC/status/1730481941999476890</t>
   </si>
   <si>
-    <t>https://twitter.com/simonateba/status/1726433393338925163</t>
+    <t>https://twitter.com/Thuyle1903/status/1730551172359229951</t>
+  </si>
+  <si>
+    <t>https://twitter.com/MrBifuny/status/1730532272028479797</t>
   </si>
 </sst>
 </file>
@@ -359,11 +363,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -373,51 +375,69 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A7E959-9370-4FC1-9120-6280B74977F4}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{8A4A13E2-ECFA-434D-8358-A1E3741CADF6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Twitter Automation/Account.xlsx
+++ b/Twitter Automation/Account.xlsx
@@ -1,75 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuha\Desktop\X\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D3519F-43DD-4A9D-8AB7-F2132DF764AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5535" yWindow="4170" windowWidth="21765" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5535" yWindow="4170" windowWidth="21765" windowHeight="10695" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>https://twitter.com/DaffyDodo_IC/status/1730481941999476890</t>
-  </si>
-  <si>
-    <t>https://twitter.com/Thuyle1903/status/1730551172359229951</t>
-  </si>
-  <si>
-    <t>https://x.com/InspireUrFkLife/status/1730416687936348409?s=20</t>
-  </si>
-  <si>
-    <t>https://twitter.com/HungPham381/status/1730360086315634953/video/1</t>
-  </si>
-  <si>
-    <t>https://x.com/hiepngu67772811/status/1730427905719800134?s=46</t>
-  </si>
-  <si>
-    <t>https://twitter.com/LasernaCes46344/status/1730096557578453254</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -86,26 +53,85 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -371,83 +397,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="75.5703125" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" customWidth="1"/>
+    <col width="75.5703125" customWidth="1" min="1" max="1"/>
+    <col width="41.7109375" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>https://x.com/InspireUrFkLife/status/1730416687936348409?s=20</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://twitter.com/anhtuhan/status/1730459161861988680
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>https://twitter.com/HungPham381/status/1730360086315634953/video/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>https://x.com/hiepngu67772811/status/1730427905719800134?s=46</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://twitter.com/LasernaCes46344/status/1730096557578453254</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{4DB113F1-C3ED-4240-88C5-B087301467DA}"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A7E959-9370-4FC1-9120-6280B74977F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>https://twitter.com/DaffyDodo_IC/status/1730481941999476890</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>https://twitter.com/Thuyle1903/status/1730551172359229951</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{8A4A13E2-ECFA-434D-8358-A1E3741CADF6}"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Twitter Automation/Account.xlsx
+++ b/Twitter Automation/Account.xlsx
@@ -1,42 +1,70 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuha\Desktop\X\Twitter\Twitter Automation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F3170D-DAEC-4DD6-A454-8DCA83167A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5535" yWindow="4170" windowWidth="21765" windowHeight="10695" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="1020" yWindow="3060" windowWidth="21765" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>https://x.com/InspireUrFkLife/status/1730416687936348409?s=20</t>
+  </si>
+  <si>
+    <t>https://twitter.com/HungPham381/status/1730360086315634953/video/1</t>
+  </si>
+  <si>
+    <t>https://x.com/hiepngu67772811/status/1730427905719800134?s=46</t>
+  </si>
+  <si>
+    <t>https://twitter.com/LasernaCes46344/status/1730096557578453254</t>
+  </si>
+  <si>
+    <t>https://twitter.com/DaffyDodo_IC/status/1730481941999476890</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Thuyle1903/status/1730551172359229951</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -56,82 +84,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -397,102 +366,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="75.5703125" customWidth="1" min="1" max="1"/>
-    <col width="41.7109375" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="75.5703125" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>https://x.com/InspireUrFkLife/status/1730416687936348409?s=20</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://twitter.com/anhtuhan/status/1730459161861988680
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>https://twitter.com/HungPham381/status/1730360086315634953/video/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>https://x.com/hiepngu67772811/status/1730427905719800134?s=46</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>https://twitter.com/LasernaCes46344/status/1730096557578453254</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n"/>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>https://twitter.com/DaffyDodo_IC/status/1730481941999476890</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>https://twitter.com/Thuyle1903/status/1730551172359229951</t>
-        </is>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Twitter Automation/Account.xlsx
+++ b/Twitter Automation/Account.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuha\Desktop\X\Twitter\Twitter Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuha\Desktop\X\Code-X\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F3170D-DAEC-4DD6-A454-8DCA83167A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B66D55-7291-47E3-8EC1-7B5AFC024CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="3060" windowWidth="21765" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,18 +21,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>https://x.com/InspireUrFkLife/status/1730416687936348409?s=20</t>
-  </si>
-  <si>
-    <t>https://twitter.com/HungPham381/status/1730360086315634953/video/1</t>
-  </si>
-  <si>
-    <t>https://x.com/hiepngu67772811/status/1730427905719800134?s=46</t>
-  </si>
-  <si>
-    <t>https://twitter.com/LasernaCes46344/status/1730096557578453254</t>
   </si>
   <si>
     <t>https://twitter.com/DaffyDodo_IC/status/1730481941999476890</t>
@@ -367,10 +358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -384,23 +375,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -420,12 +396,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Twitter Automation/Account.xlsx
+++ b/Twitter Automation/Account.xlsx
@@ -1,70 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuha\Desktop\X\Twitter\Twitter Automation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F3170D-DAEC-4DD6-A454-8DCA83167A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="3060" windowWidth="21765" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1665" yWindow="1035" windowWidth="19425" windowHeight="9570" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>https://x.com/InspireUrFkLife/status/1730416687936348409?s=20</t>
-  </si>
-  <si>
-    <t>https://twitter.com/HungPham381/status/1730360086315634953/video/1</t>
-  </si>
-  <si>
-    <t>https://x.com/hiepngu67772811/status/1730427905719800134?s=46</t>
-  </si>
-  <si>
-    <t>https://twitter.com/LasernaCes46344/status/1730096557578453254</t>
-  </si>
-  <si>
-    <t>https://twitter.com/DaffyDodo_IC/status/1730481941999476890</t>
-  </si>
-  <si>
-    <t>https://twitter.com/Thuyle1903/status/1730551172359229951</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -84,23 +56,82 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -366,71 +397,120 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="75.5703125" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" customWidth="1"/>
+    <col width="75.5703125" customWidth="1" min="1" max="1"/>
+    <col width="41.7109375" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>https://x.com/hotmailphillips/status/1731878783618093402?s=46</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://twitter.com/anhtuhan/status/1729073292387193061
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://x.com/anhtuhan/status/1729408841941647712</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>https://x.com/donalnguyen85/status/1730182536796745747?s=46</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://x.com/vannafabulous/status/1731236793066930375?s=46</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://twitter.com/vuvanhieu1103/status/1732211399777231208</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://x.com/wangminz21/status/1731452754696994948?s=46</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+    <hyperlink ref="A5" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>https://twitter.com/DaffyDodo_IC/status/1730481941999476890</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>https://twitter.com/Thuyle1903/status/1730551172359229951</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Twitter Automation/Account.xlsx
+++ b/Twitter Automation/Account.xlsx
@@ -1,61 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuha\Desktop\X\Code-X\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B66D55-7291-47E3-8EC1-7B5AFC024CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="3060" windowWidth="21765" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1395" yWindow="1665" windowWidth="21765" windowHeight="10695" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>https://x.com/InspireUrFkLife/status/1730416687936348409?s=20</t>
-  </si>
-  <si>
-    <t>https://twitter.com/DaffyDodo_IC/status/1730481941999476890</t>
-  </si>
-  <si>
-    <t>https://twitter.com/Thuyle1903/status/1730551172359229951</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -75,23 +56,82 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -357,56 +397,218 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="75.5703125" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" customWidth="1"/>
+    <col width="75.5703125" customWidth="1" min="1" max="1"/>
+    <col width="41.7109375" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>https://twitter.com/TruongQP97a/status/1732592847680065999</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://twitter.com/anhtuhan/status/1729073292387193061
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://twitter.com/phamtruongads/status/1732263627842068810</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://twitter.com/AmazingThingsVN/status/1732593538234527999</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://twitter.com/demonloldf651fg/status/1731391647093756031</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://twitter.com/naccaraton36/status/1732271844357706000</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://x.com/jpchicho/status/1732643549441667262?s=20</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://x.com/JAVIER1988/status/1732644190448734678?s=20</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://x.com/ChriztianCD/status/1732644311081066746?s=20</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://x.com/BaramShzz3/status/1732644440378863632?s=20</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://x.com/Muhammed071907/status/1732644660969947223?s=20</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://twitter.com/MAFootballnews/status/1732564486094262469?t=zLRjRZ2pb3jpT1JOU50z-g&amp;s=19</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://twitter.com/longbithnh1/status/1730576265294594153?t=EHrAohRJlbA2_xoSqXsa9Q&amp;s=19</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://twitter.com/hungsphdhn/status/1732596064698679744</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://x.com/Hung27695619/status/1732246987058364768?s=20</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://x.com/mrnhat9797/status/1730420786417242407?s=20</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://x.com/maihuy9797/status/1732552563583758463?s=20</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://twitter.com/petcute2024/status/1732566792730825079</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://x.com/LaticiaGug210/status/1732708151521108335?s=20</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://x.com/tuenhii2002/status/1732722213495959642?s=46</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://x.com/xdu060982/status/1732741426432393422?s=20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://twitter.com/CaoThuWorld/status/1732767661589754030?t=qMOAs00xldcm50FyIIYvmw&amp;s=19</t>
+        </is>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>https://twitter.com/DaffyDodo_IC/status/1730481941999476890</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>https://twitter.com/Thuyle1903/status/1730551172359229951</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Twitter Automation/Account.xlsx
+++ b/Twitter Automation/Account.xlsx
@@ -1,42 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuha\Desktop\Twitter\Twitter Automation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9BBDA2-D180-4B8A-A4C3-664FF55BFDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1395" yWindow="1665" windowWidth="21765" windowHeight="10695" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="4620" yWindow="1692" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t xml:space="preserve">https://twitter.com/anhtuhan/status/1729073292387193061
+</t>
+  </si>
+  <si>
+    <t>https://twitter.com/phamtruongads/status/1732263627842068810</t>
+  </si>
+  <si>
+    <t>https://twitter.com/DaffyDodo_IC/status/1730481941999476890</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Thuyle1903/status/1730551172359229951</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -56,82 +79,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -397,218 +361,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="75.5703125" customWidth="1" min="1" max="1"/>
-    <col width="41.7109375" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="75.5546875" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>https://twitter.com/TruongQP97a/status/1732592847680065999</t>
-        </is>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://twitter.com/anhtuhan/status/1729073292387193061
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>https://twitter.com/phamtruongads/status/1732263627842068810</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>https://twitter.com/AmazingThingsVN/status/1732593538234527999</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>https://twitter.com/demonloldf651fg/status/1731391647093756031</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://twitter.com/naccaraton36/status/1732271844357706000</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://x.com/jpchicho/status/1732643549441667262?s=20</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://x.com/JAVIER1988/status/1732644190448734678?s=20</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://x.com/ChriztianCD/status/1732644311081066746?s=20</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://x.com/BaramShzz3/status/1732644440378863632?s=20</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>https://x.com/Muhammed071907/status/1732644660969947223?s=20</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>https://twitter.com/MAFootballnews/status/1732564486094262469?t=zLRjRZ2pb3jpT1JOU50z-g&amp;s=19</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>https://twitter.com/longbithnh1/status/1730576265294594153?t=EHrAohRJlbA2_xoSqXsa9Q&amp;s=19</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>https://twitter.com/hungsphdhn/status/1732596064698679744</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>https://x.com/Hung27695619/status/1732246987058364768?s=20</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>https://x.com/mrnhat9797/status/1730420786417242407?s=20</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>https://x.com/maihuy9797/status/1732552563583758463?s=20</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>https://twitter.com/petcute2024/status/1732566792730825079</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>https://x.com/LaticiaGug210/status/1732708151521108335?s=20</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>https://x.com/tuenhii2002/status/1732722213495959642?s=46</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>https://x.com/xdu060982/status/1732741426432393422?s=20</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>https://twitter.com/CaoThuWorld/status/1732767661589754030?t=qMOAs00xldcm50FyIIYvmw&amp;s=19</t>
-        </is>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>https://twitter.com/DaffyDodo_IC/status/1730481941999476890</t>
-        </is>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>https://twitter.com/Thuyle1903/status/1730551172359229951</t>
-        </is>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Twitter Automation/Account.xlsx
+++ b/Twitter Automation/Account.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1395" yWindow="1665" windowWidth="21765" windowHeight="10695" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1335" yWindow="2490" windowWidth="19425" windowHeight="9570" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -402,10 +402,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -424,170 +424,30 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t xml:space="preserve">https://twitter.com/ainguyen6818/status/1732547850477895830
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t xml:space="preserve">https://twitter.com/anhtuhan/status/1732749229213528551
 </t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://twitter.com/anhtuhan/status/1729073292387193061
-</t>
-        </is>
-      </c>
-    </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>https://twitter.com/phamtruongads/status/1732263627842068810</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://twitter.com/AmazingThingsVN/status/1732593538234527999</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>https://twitter.com/demonloldf651fg/status/1731391647093756031</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://twitter.com/naccaraton36/status/1732271844357706000</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://x.com/jpchicho/status/1732643549441667262?s=20</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://x.com/JAVIER1988/status/1732644190448734678?s=20</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://x.com/ChriztianCD/status/1732644311081066746?s=20</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>https://x.com/BaramShzz3/status/1732644440378863632?s=20</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>https://x.com/Muhammed071907/status/1732644660969947223?s=20</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>https://twitter.com/MAFootballnews/status/1732564486094262469?t=zLRjRZ2pb3jpT1JOU50z-g&amp;s=19</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>https://twitter.com/longbithnh1/status/1730576265294594153?t=EHrAohRJlbA2_xoSqXsa9Q&amp;s=19</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>https://twitter.com/hungsphdhn/status/1732596064698679744</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>https://x.com/Hung27695619/status/1732246987058364768?s=20</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>https://x.com/mrnhat9797/status/1730420786417242407?s=20</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>https://x.com/maihuy9797/status/1732552563583758463?s=20</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>https://twitter.com/petcute2024/status/1732566792730825079</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>https://x.com/LaticiaGug210/status/1732708151521108335?s=20</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>https://x.com/tuenhii2002/status/1732722213495959642?s=46</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>https://x.com/xdu060982/status/1732741426432393422?s=20</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>https://twitter.com/CaoThuWorld/status/1732767661589754030?t=qMOAs00xldcm50FyIIYvmw&amp;s=19</t>
-        </is>
-      </c>
+      <c r="A4" s="1" t="n"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A4" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -616,7 +476,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
